--- a/data/metal/有色金属中观数据库.xlsx
+++ b/data/metal/有色金属中观数据库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,29 @@
   </si>
   <si>
     <t>S0028205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0000271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0260036</t>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brent油价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1010,6 +1033,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
